--- a/outputs-r202/g__Methanobrevibacter.xlsx
+++ b/outputs-r202/g__Methanobrevibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,11 @@
           <t>s__Methanobrevibacter sp900314635</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter sp900314635</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>s__Methanobrevibacter sp900314635</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter sp900314635</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -603,6 +618,11 @@
         <v>0.9999649770449444</v>
       </c>
       <c r="K4" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter sp900321995</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter sp900321995</t>
         </is>

--- a/outputs-r202/g__Methanobrevibacter.xlsx
+++ b/outputs-r202/g__Methanobrevibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,130 +499,42 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG020.fasta</t>
+          <t>RUG748.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220301184149731e-14</v>
+        <v>2.219934722210556e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220301184149731e-14</v>
+        <v>2.219934722210556e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.71089522712615e-05</v>
+        <v>0.00210581594742829</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994772714490636</v>
+        <v>2.219934722210556e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220301184149731e-14</v>
+        <v>0.9978940989117027</v>
       </c>
       <c r="G2" t="n">
-        <v>2.220301184149731e-14</v>
+        <v>2.219934722210556e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.220301184149731e-14</v>
+        <v>2.219934722210556e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005056195985541953</v>
+        <v>8.514075796064245e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9994772714490636</v>
+        <v>0.9978940989117027</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter sp900314635</t>
+          <t>s__Methanobrevibacter sp900321995</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter sp900314635</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RUG201.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.220400681083032e-14</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.220400681083032e-14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.406100327944378e-06</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9998364659481197</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.220400681083032e-14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.220400681083032e-14</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.220400681083032e-14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001601279514414901</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9998364659481197</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter sp900314635</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter sp900314635</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG748.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.220436329420498e-14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.220436329420498e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.414053328596083e-05</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.220436329420498e-14</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9999649770449444</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.220436329420498e-14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.220436329420498e-14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.824216586467526e-07</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9999649770449444</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter sp900321995</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter sp900321995</t>
         </is>
